--- a/data_quality_report.xlsx
+++ b/data_quality_report.xlsx
@@ -52,7 +52,7 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>2025-11-26T21:30:13</t>
+    <t>2025-11-26T21:57:26</t>
   </si>
   <si>
     <t>transactions_source</t>

--- a/data_quality_report.xlsx
+++ b/data_quality_report.xlsx
@@ -52,7 +52,7 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>2025-11-26T21:57:26</t>
+    <t>2025-11-27T00:10:56</t>
   </si>
   <si>
     <t>transactions_source</t>

--- a/data_quality_report.xlsx
+++ b/data_quality_report.xlsx
@@ -52,7 +52,7 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>2025-11-27T00:10:56</t>
+    <t>2025-11-27T00:27:42</t>
   </si>
   <si>
     <t>transactions_source</t>
